--- a/assignments/1 bp on pmt wages nese nyc and suburban/Boyd notes 1bp pmt increase_2024-12-13_see 2025-01-31 notes.xlsx
+++ b/assignments/1 bp on pmt wages nese nyc and suburban/Boyd notes 1bp pmt increase_2024-12-13_see 2025-01-31 notes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\MTA\MTA2025\assignments\1 bp on pmt wages nese nyc and suburban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CC39C0-CCB5-4A8F-8D67-52B7B9FC1042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE98A28-3E43-4ED6-8ABB-4070F947B1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12120" xr2:uid="{48DEBE28-8E26-4731-9106-264E7182FA27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{48DEBE28-8E26-4731-9106-264E7182FA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>nyc</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>num bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $500m increase</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -222,10 +225,11 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -743,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6BF952-7CDE-4DA3-89F8-27217EF53C69}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,25 +762,25 @@
     <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -794,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
@@ -812,13 +816,13 @@
         <v>1141.0331008588123</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -835,7 +839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -856,12 +860,15 @@
       <c r="H8">
         <v>23</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f>+H8*F8</f>
         <v>1039.6566984363562</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -882,12 +889,12 @@
       <c r="H9">
         <v>23</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" ref="I9:I10" si="0">+F9*H9</f>
         <v>1299.5708730454451</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -904,28 +911,52 @@
       <c r="H10">
         <v>23</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>259.91417460908895</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <f>+F8*13</f>
+        <v>587.6320469422883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q11" s="16">
+        <f>7.3*F10</f>
+        <v>82.49449889766737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q12" s="16">
+        <f>+Q10+Q11</f>
+        <v>670.12654583995572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <f>+Q12/1.08</f>
+        <v>620.4875424444034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="3">
         <v>1796.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <f>+Q13-43</f>
+        <v>577.4875424444034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -933,7 +964,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
